--- a/strategy_tables/power_threshold_no_unanimity.xlsx
+++ b/strategy_tables/power_threshold_no_unanimity.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,17 +569,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="5.22"/>
@@ -698,7 +698,9 @@
       <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -747,7 +749,9 @@
       <c r="H5" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -796,7 +800,9 @@
       <c r="M6" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="29"/>
+      <c r="N6" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
@@ -845,7 +851,9 @@
         <v>11</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -898,7 +906,9 @@
       <c r="I9" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
@@ -951,7 +961,9 @@
       <c r="N10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="36"/>
+      <c r="O10" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="30"/>
@@ -1002,7 +1014,9 @@
         <v>0</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19" t="n">
@@ -1053,7 +1067,9 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
       <c r="N13" s="19"/>
@@ -1106,7 +1122,9 @@
         <v>1</v>
       </c>
       <c r="O14" s="26"/>
-      <c r="P14" s="36"/>
+      <c r="P14" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="30"/>
     </row>
@@ -1157,7 +1175,9 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20" t="n">
@@ -1210,7 +1230,9 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="32"/>
+      <c r="L17" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" s="18"/>
       <c r="N17" s="19" t="n">
         <v>0</v>
@@ -1261,7 +1283,9 @@
       <c r="N18" s="25"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1336,9 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" s="41" t="n">
         <v>0</v>
       </c>
@@ -1363,7 +1389,9 @@
         <v>0</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="40"/>
+      <c r="M21" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="41" t="n">
         <v>0</v>
       </c>
@@ -1414,7 +1442,9 @@
       <c r="Q22" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="45"/>
+      <c r="R22" s="45" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
